--- a/project2/storage details.xlsx
+++ b/project2/storage details.xlsx
@@ -545,7 +545,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-03-03 13:41:02</t>
+          <t>2025-03-04 10:59:53</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-03-03 13:41:03</t>
+          <t>2025-03-04 10:59:54</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-03-03 13:41:04</t>
+          <t>2025-03-04 10:59:56</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-03-03 13:41:05</t>
+          <t>2025-03-04 10:59:57</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-03-03 13:41:06</t>
+          <t>2025-03-04 10:59:58</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-03-03 13:41:07</t>
+          <t>2025-03-04 10:59:59</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-03-03 13:41:08</t>
+          <t>2025-03-04 11:00:00</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-03-03 13:41:09</t>
+          <t>2025-03-04 11:00:01</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-03-03 13:41:10</t>
+          <t>2025-03-04 11:00:02</t>
         </is>
       </c>
     </row>

--- a/project2/storage details.xlsx
+++ b/project2/storage details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Temperature(Celsius)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -492,6 +492,11 @@
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Free space(GB)</t>
         </is>
       </c>
     </row>
@@ -536,7 +541,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -545,7 +550,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-03-04 10:59:53</t>
+          <t>2025-03-04 12:04:47</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -590,7 +600,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -599,8 +609,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-03-04 10:59:54</t>
-        </is>
+          <t>2025-03-04 12:04:48</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>1.037776947021484</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +657,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -653,8 +666,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-03-04 10:59:56</t>
-        </is>
+          <t>2025-03-04 12:04:49</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>424.0144653320312</v>
       </c>
     </row>
     <row r="5">
@@ -698,7 +714,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -707,7 +723,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-03-04 10:59:57</t>
+          <t>2025-03-04 12:04:50</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -752,7 +773,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -761,8 +782,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-03-04 10:59:58</t>
-        </is>
+          <t>2025-03-04 12:04:51</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>1.037776947021484</v>
       </c>
     </row>
     <row r="7">
@@ -806,7 +830,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -815,8 +839,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-03-04 10:59:59</t>
-        </is>
+          <t>2025-03-04 12:04:52</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>424.0144500732422</v>
       </c>
     </row>
     <row r="8">
@@ -860,7 +887,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -869,7 +896,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-03-04 11:00:00</t>
+          <t>2025-03-04 12:04:53</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -914,7 +946,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -923,8 +955,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-03-04 11:00:01</t>
-        </is>
+          <t>2025-03-04 12:04:55</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>1.037776947021484</v>
       </c>
     </row>
     <row r="10">
@@ -968,7 +1003,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -977,8 +1012,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-03-04 11:00:02</t>
-        </is>
+          <t>2025-03-04 12:04:56</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>424.0144577026367</v>
       </c>
     </row>
   </sheetData>

--- a/project2/storage details.xlsx
+++ b/project2/storage details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Temperature(Celsius)</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -492,11 +492,6 @@
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Free space(GB)</t>
         </is>
       </c>
     </row>
@@ -550,12 +545,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-03-04 12:04:47</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+          <t>2025-03-05 16:14:51</t>
         </is>
       </c>
     </row>
@@ -609,11 +599,8 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-03-04 12:04:48</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1.037776947021484</v>
+          <t>2025-03-05 16:14:52</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -666,11 +653,8 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-03-04 12:04:49</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>424.0144653320312</v>
+          <t>2025-03-05 16:14:53</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -714,7 +698,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -723,12 +707,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-03-04 12:04:50</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+          <t>2025-03-05 16:14:54</t>
         </is>
       </c>
     </row>
@@ -773,7 +752,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -782,11 +761,8 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-03-04 12:04:51</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1.037776947021484</v>
+          <t>2025-03-05 16:14:56</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -830,7 +806,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -839,11 +815,8 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-03-04 12:04:52</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>424.0144500732422</v>
+          <t>2025-03-05 16:14:57</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -887,7 +860,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -896,12 +869,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-03-04 12:04:53</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+          <t>2025-03-05 16:14:58</t>
         </is>
       </c>
     </row>
@@ -946,7 +914,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -955,11 +923,8 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-03-04 12:04:55</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1.037776947021484</v>
+          <t>2025-03-05 16:14:59</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1003,7 +968,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1012,11 +977,8 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-03-04 12:04:56</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>424.0144577026367</v>
+          <t>2025-03-05 16:15:00</t>
+        </is>
       </c>
     </row>
   </sheetData>
